--- a/biology/Médecine/Énanthème/Énanthème.xlsx
+++ b/biology/Médecine/Énanthème/Énanthème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89nanth%C3%A8me</t>
+          <t>Énanthème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un énanthème consiste en éruptions muqueuses fugaces, plus souvent vues chez les enfants et surtout associées à des primoinfections virales (ex : rougeole, rubéole, exanthème subit, mégalérythème épidémique, syndrome pied-main-bouche, herpangine, syndrome papulopurpurique en gants et chaussettes ou mononucléose infectieuse (chez l'adolescent) ou à une infections bactériennes (scarlatine, si la langue est blanchâtre ou partiellement blanche) ou une pathologie inflammatoire systémique grave (Maladie de Kawazaki si la langue est rouge vif)[1] ou encore à une allergie[2] ou à un choc toxique (ex : choc toxique staphylococcique)[3] Récemment l'énanthème a aussi été associé à la COVID-19[4].
+Un énanthème consiste en éruptions muqueuses fugaces, plus souvent vues chez les enfants et surtout associées à des primoinfections virales (ex : rougeole, rubéole, exanthème subit, mégalérythème épidémique, syndrome pied-main-bouche, herpangine, syndrome papulopurpurique en gants et chaussettes ou mononucléose infectieuse (chez l'adolescent) ou à une infections bactériennes (scarlatine, si la langue est blanchâtre ou partiellement blanche) ou une pathologie inflammatoire systémique grave (Maladie de Kawazaki si la langue est rouge vif) ou encore à une allergie ou à un choc toxique (ex : choc toxique staphylococcique) Récemment l'énanthème a aussi été associé à la COVID-19.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89nanth%C3%A8me</t>
+          <t>Énanthème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les énanthèmes se présentent le plus souvent comme des taches rouges maculaires, soudainement et transitoirement apparues sur les muqueuses (par exemple dans la bouche), ces macules (rappel : « une macule est une lésion plane de petite taille (&lt; 1 cm), le plus souvent arrondie, bien délimitée, non infiltrée, non palpable »[5]) ou parfois papules (rondes à ovulaires) sont observées « principalement sous la forme de macules/plages érythémateuses ou purpuriques »[1]. Ils sont souvent accompagnés d'exanthèmes[1] et peuvent avoir une cause médicamenteuse[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les énanthèmes se présentent le plus souvent comme des taches rouges maculaires, soudainement et transitoirement apparues sur les muqueuses (par exemple dans la bouche), ces macules (rappel : « une macule est une lésion plane de petite taille (&lt; 1 cm), le plus souvent arrondie, bien délimitée, non infiltrée, non palpable ») ou parfois papules (rondes à ovulaires) sont observées « principalement sous la forme de macules/plages érythémateuses ou purpuriques ». Ils sont souvent accompagnés d'exanthèmes et peuvent avoir une cause médicamenteuse.
 À l'inverse des exanthèmes (éruptions observées sur la peau et non sur les muqueuses)[Quoi ?].
 </t>
         </is>
